--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnc-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnc-Cntn1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H2">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I2">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J2">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,10 +555,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="N2">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.616189157988</v>
+        <v>0.2368747582366666</v>
       </c>
       <c r="R2">
-        <v>5.545702421892</v>
+        <v>2.13187282413</v>
       </c>
       <c r="S2">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="T2">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>317.640397</v>
       </c>
       <c r="I3">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J3">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,10 +617,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="N3">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>7.291117672738001</v>
+        <v>7.014382300196112</v>
       </c>
       <c r="R3">
-        <v>65.62005905464201</v>
+        <v>63.12944070176501</v>
       </c>
       <c r="S3">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="T3">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H4">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I4">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J4">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,10 +679,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="N4">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.9389439058860002</v>
+        <v>2.143882366162222</v>
       </c>
       <c r="R4">
-        <v>8.450495152974002</v>
+        <v>19.29494129546</v>
       </c>
       <c r="S4">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="T4">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H5">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I5">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J5">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,10 +741,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="N5">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.007910154986000003</v>
+        <v>0.006647269435555557</v>
       </c>
       <c r="R5">
-        <v>0.07119139487400002</v>
+        <v>0.05982542492</v>
       </c>
       <c r="S5">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="T5">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
     </row>
   </sheetData>
